--- a/rdy_device2.xlsx
+++ b/rdy_device2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marsh\Desktop\Auto Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188A16F3-590F-442C-B038-0E6F2C107016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A027E444-3828-45BD-860D-4442B0D6570B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="10440" windowWidth="26010" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +974,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B36" t="s">
@@ -985,7 +985,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B37" t="s">
@@ -996,7 +996,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B38" t="s">
@@ -1007,7 +1007,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B39" t="s">
@@ -1018,7 +1018,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B40" t="s">
@@ -1040,7 +1040,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B42" t="s">
@@ -1051,7 +1051,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B43" t="s">
@@ -1062,7 +1062,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B44" t="s">
@@ -1073,7 +1073,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
@@ -1084,7 +1084,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
@@ -1095,7 +1095,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -1106,7 +1106,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B48" t="s">
@@ -1117,7 +1117,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
@@ -1128,7 +1128,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
@@ -1139,7 +1139,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B51" t="s">
@@ -1150,7 +1150,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B52" t="s">
@@ -1161,7 +1161,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -1172,7 +1172,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -1194,7 +1194,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B56" t="s">
